--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_189.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_189.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32308-d84111-Reviews-Days_Inn_Downey-Downey_California.html</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>253</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Downey.h41562.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_189.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_189.xlsx
@@ -3352,7 +3352,7 @@
         <v>33743</v>
       </c>
       <c r="B2" t="n">
-        <v>134918</v>
+        <v>165818</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3419,7 +3419,7 @@
         <v>33743</v>
       </c>
       <c r="B3" t="n">
-        <v>134919</v>
+        <v>165819</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -3490,7 +3490,7 @@
         <v>33743</v>
       </c>
       <c r="B4" t="n">
-        <v>134920</v>
+        <v>165820</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -3770,7 +3770,7 @@
         <v>33743</v>
       </c>
       <c r="B8" t="n">
-        <v>134921</v>
+        <v>165821</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -3841,7 +3841,7 @@
         <v>33743</v>
       </c>
       <c r="B9" t="n">
-        <v>134922</v>
+        <v>165822</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
@@ -3912,7 +3912,7 @@
         <v>33743</v>
       </c>
       <c r="B10" t="n">
-        <v>134923</v>
+        <v>165823</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -3983,7 +3983,7 @@
         <v>33743</v>
       </c>
       <c r="B11" t="n">
-        <v>134924</v>
+        <v>165824</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -4054,7 +4054,7 @@
         <v>33743</v>
       </c>
       <c r="B12" t="n">
-        <v>134925</v>
+        <v>165825</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -4115,7 +4115,7 @@
         <v>33743</v>
       </c>
       <c r="B13" t="n">
-        <v>134926</v>
+        <v>165826</v>
       </c>
       <c r="C13" t="s">
         <v>125</v>
@@ -4186,7 +4186,7 @@
         <v>33743</v>
       </c>
       <c r="B14" t="n">
-        <v>134927</v>
+        <v>165827</v>
       </c>
       <c r="C14" t="s">
         <v>131</v>
@@ -4257,7 +4257,7 @@
         <v>33743</v>
       </c>
       <c r="B15" t="n">
-        <v>134928</v>
+        <v>165828</v>
       </c>
       <c r="C15" t="s">
         <v>138</v>
@@ -4328,7 +4328,7 @@
         <v>33743</v>
       </c>
       <c r="B16" t="n">
-        <v>134929</v>
+        <v>165829</v>
       </c>
       <c r="C16" t="s">
         <v>144</v>
@@ -4399,7 +4399,7 @@
         <v>33743</v>
       </c>
       <c r="B17" t="n">
-        <v>134930</v>
+        <v>165830</v>
       </c>
       <c r="C17" t="s">
         <v>150</v>
@@ -4470,7 +4470,7 @@
         <v>33743</v>
       </c>
       <c r="B18" t="n">
-        <v>134931</v>
+        <v>165831</v>
       </c>
       <c r="C18" t="s">
         <v>157</v>
@@ -4537,7 +4537,7 @@
         <v>33743</v>
       </c>
       <c r="B19" t="n">
-        <v>134932</v>
+        <v>134935</v>
       </c>
       <c r="C19" t="s">
         <v>163</v>
@@ -4608,7 +4608,7 @@
         <v>33743</v>
       </c>
       <c r="B20" t="n">
-        <v>134933</v>
+        <v>165832</v>
       </c>
       <c r="C20" t="s">
         <v>170</v>
@@ -4679,7 +4679,7 @@
         <v>33743</v>
       </c>
       <c r="B21" t="n">
-        <v>134934</v>
+        <v>165833</v>
       </c>
       <c r="C21" t="s">
         <v>176</v>
@@ -4750,7 +4750,7 @@
         <v>33743</v>
       </c>
       <c r="B22" t="n">
-        <v>134935</v>
+        <v>165834</v>
       </c>
       <c r="C22" t="s">
         <v>182</v>
@@ -4882,7 +4882,7 @@
         <v>33743</v>
       </c>
       <c r="B24" t="n">
-        <v>134936</v>
+        <v>165835</v>
       </c>
       <c r="C24" t="s">
         <v>195</v>
@@ -4953,7 +4953,7 @@
         <v>33743</v>
       </c>
       <c r="B25" t="n">
-        <v>134937</v>
+        <v>165836</v>
       </c>
       <c r="C25" t="s">
         <v>202</v>
@@ -5024,7 +5024,7 @@
         <v>33743</v>
       </c>
       <c r="B26" t="n">
-        <v>134938</v>
+        <v>165837</v>
       </c>
       <c r="C26" t="s">
         <v>208</v>
@@ -5095,7 +5095,7 @@
         <v>33743</v>
       </c>
       <c r="B27" t="n">
-        <v>134939</v>
+        <v>165838</v>
       </c>
       <c r="C27" t="s">
         <v>215</v>
@@ -5166,7 +5166,7 @@
         <v>33743</v>
       </c>
       <c r="B28" t="n">
-        <v>134940</v>
+        <v>165839</v>
       </c>
       <c r="C28" t="s">
         <v>221</v>
@@ -5237,7 +5237,7 @@
         <v>33743</v>
       </c>
       <c r="B29" t="n">
-        <v>134941</v>
+        <v>165840</v>
       </c>
       <c r="C29" t="s">
         <v>228</v>
@@ -5308,7 +5308,7 @@
         <v>33743</v>
       </c>
       <c r="B30" t="n">
-        <v>134942</v>
+        <v>165841</v>
       </c>
       <c r="C30" t="s">
         <v>235</v>
@@ -5370,7 +5370,7 @@
         <v>33743</v>
       </c>
       <c r="B31" t="n">
-        <v>134943</v>
+        <v>165842</v>
       </c>
       <c r="C31" t="s">
         <v>239</v>
@@ -5441,7 +5441,7 @@
         <v>33743</v>
       </c>
       <c r="B32" t="n">
-        <v>134944</v>
+        <v>165843</v>
       </c>
       <c r="C32" t="s">
         <v>245</v>
@@ -5508,7 +5508,7 @@
         <v>33743</v>
       </c>
       <c r="B33" t="n">
-        <v>134945</v>
+        <v>165844</v>
       </c>
       <c r="C33" t="s">
         <v>253</v>
@@ -5579,7 +5579,7 @@
         <v>33743</v>
       </c>
       <c r="B34" t="n">
-        <v>134946</v>
+        <v>165845</v>
       </c>
       <c r="C34" t="s">
         <v>259</v>
@@ -5721,7 +5721,7 @@
         <v>33743</v>
       </c>
       <c r="B36" t="n">
-        <v>134947</v>
+        <v>165846</v>
       </c>
       <c r="C36" t="s">
         <v>271</v>
@@ -5792,7 +5792,7 @@
         <v>33743</v>
       </c>
       <c r="B37" t="n">
-        <v>134948</v>
+        <v>165847</v>
       </c>
       <c r="C37" t="s">
         <v>278</v>
@@ -5863,7 +5863,7 @@
         <v>33743</v>
       </c>
       <c r="B38" t="n">
-        <v>134949</v>
+        <v>165848</v>
       </c>
       <c r="C38" t="s">
         <v>284</v>
@@ -5934,7 +5934,7 @@
         <v>33743</v>
       </c>
       <c r="B39" t="n">
-        <v>134950</v>
+        <v>165849</v>
       </c>
       <c r="C39" t="s">
         <v>291</v>
@@ -6062,7 +6062,7 @@
         <v>33743</v>
       </c>
       <c r="B41" t="n">
-        <v>134951</v>
+        <v>165850</v>
       </c>
       <c r="C41" t="s">
         <v>304</v>
@@ -6194,7 +6194,7 @@
         <v>33743</v>
       </c>
       <c r="B43" t="n">
-        <v>134952</v>
+        <v>165851</v>
       </c>
       <c r="C43" t="s">
         <v>316</v>
@@ -6265,7 +6265,7 @@
         <v>33743</v>
       </c>
       <c r="B44" t="n">
-        <v>134953</v>
+        <v>165852</v>
       </c>
       <c r="C44" t="s">
         <v>322</v>
@@ -6397,7 +6397,7 @@
         <v>33743</v>
       </c>
       <c r="B46" t="n">
-        <v>134954</v>
+        <v>165853</v>
       </c>
       <c r="C46" t="s">
         <v>335</v>
@@ -6466,7 +6466,7 @@
         <v>33743</v>
       </c>
       <c r="B47" t="n">
-        <v>134955</v>
+        <v>165854</v>
       </c>
       <c r="C47" t="s">
         <v>341</v>
@@ -6598,7 +6598,7 @@
         <v>33743</v>
       </c>
       <c r="B49" t="n">
-        <v>134956</v>
+        <v>165855</v>
       </c>
       <c r="C49" t="s">
         <v>355</v>
@@ -6669,7 +6669,7 @@
         <v>33743</v>
       </c>
       <c r="B50" t="n">
-        <v>134957</v>
+        <v>165856</v>
       </c>
       <c r="C50" t="s">
         <v>361</v>
@@ -6740,7 +6740,7 @@
         <v>33743</v>
       </c>
       <c r="B51" t="n">
-        <v>134958</v>
+        <v>165857</v>
       </c>
       <c r="C51" t="s">
         <v>367</v>
@@ -6811,7 +6811,7 @@
         <v>33743</v>
       </c>
       <c r="B52" t="n">
-        <v>134959</v>
+        <v>165858</v>
       </c>
       <c r="C52" t="s">
         <v>373</v>
@@ -7020,7 +7020,7 @@
         <v>33743</v>
       </c>
       <c r="B55" t="n">
-        <v>134960</v>
+        <v>165859</v>
       </c>
       <c r="C55" t="s">
         <v>392</v>
@@ -7082,7 +7082,7 @@
         <v>33743</v>
       </c>
       <c r="B56" t="n">
-        <v>134961</v>
+        <v>165860</v>
       </c>
       <c r="C56" t="s">
         <v>397</v>
@@ -7145,7 +7145,7 @@
         <v>33743</v>
       </c>
       <c r="B57" t="n">
-        <v>134962</v>
+        <v>165861</v>
       </c>
       <c r="C57" t="s">
         <v>404</v>
@@ -7212,7 +7212,7 @@
         <v>33743</v>
       </c>
       <c r="B58" t="n">
-        <v>134963</v>
+        <v>165862</v>
       </c>
       <c r="C58" t="s">
         <v>411</v>
@@ -7350,7 +7350,7 @@
         <v>33743</v>
       </c>
       <c r="B60" t="n">
-        <v>134964</v>
+        <v>165863</v>
       </c>
       <c r="C60" t="s">
         <v>424</v>
@@ -7421,7 +7421,7 @@
         <v>33743</v>
       </c>
       <c r="B61" t="n">
-        <v>134965</v>
+        <v>165864</v>
       </c>
       <c r="C61" t="s">
         <v>430</v>
@@ -7483,7 +7483,7 @@
         <v>33743</v>
       </c>
       <c r="B62" t="n">
-        <v>134966</v>
+        <v>165865</v>
       </c>
       <c r="C62" t="s">
         <v>435</v>
@@ -7554,7 +7554,7 @@
         <v>33743</v>
       </c>
       <c r="B63" t="n">
-        <v>134967</v>
+        <v>165866</v>
       </c>
       <c r="C63" t="s">
         <v>441</v>
@@ -7625,7 +7625,7 @@
         <v>33743</v>
       </c>
       <c r="B64" t="n">
-        <v>134968</v>
+        <v>165867</v>
       </c>
       <c r="C64" t="s">
         <v>447</v>
@@ -7696,7 +7696,7 @@
         <v>33743</v>
       </c>
       <c r="B65" t="n">
-        <v>134969</v>
+        <v>165868</v>
       </c>
       <c r="C65" t="s">
         <v>453</v>
@@ -7763,7 +7763,7 @@
         <v>33743</v>
       </c>
       <c r="B66" t="n">
-        <v>134970</v>
+        <v>134942</v>
       </c>
       <c r="C66" t="s">
         <v>461</v>
@@ -7834,7 +7834,7 @@
         <v>33743</v>
       </c>
       <c r="B67" t="n">
-        <v>134971</v>
+        <v>165869</v>
       </c>
       <c r="C67" t="s">
         <v>467</v>
@@ -7905,7 +7905,7 @@
         <v>33743</v>
       </c>
       <c r="B68" t="n">
-        <v>134972</v>
+        <v>165870</v>
       </c>
       <c r="C68" t="s">
         <v>475</v>
@@ -7966,7 +7966,7 @@
         <v>33743</v>
       </c>
       <c r="B69" t="n">
-        <v>134973</v>
+        <v>165871</v>
       </c>
       <c r="C69" t="s">
         <v>482</v>
@@ -8392,7 +8392,7 @@
         <v>33743</v>
       </c>
       <c r="B75" t="n">
-        <v>134974</v>
+        <v>165872</v>
       </c>
       <c r="C75" t="s">
         <v>518</v>
@@ -8453,7 +8453,7 @@
         <v>33743</v>
       </c>
       <c r="B76" t="n">
-        <v>134975</v>
+        <v>165873</v>
       </c>
       <c r="C76" t="s">
         <v>524</v>
@@ -8524,7 +8524,7 @@
         <v>33743</v>
       </c>
       <c r="B77" t="n">
-        <v>134976</v>
+        <v>165874</v>
       </c>
       <c r="C77" t="s">
         <v>531</v>
@@ -8595,7 +8595,7 @@
         <v>33743</v>
       </c>
       <c r="B78" t="n">
-        <v>134977</v>
+        <v>165875</v>
       </c>
       <c r="C78" t="s">
         <v>538</v>
@@ -8737,7 +8737,7 @@
         <v>33743</v>
       </c>
       <c r="B80" t="n">
-        <v>134978</v>
+        <v>165876</v>
       </c>
       <c r="C80" t="s">
         <v>550</v>
@@ -8808,7 +8808,7 @@
         <v>33743</v>
       </c>
       <c r="B81" t="n">
-        <v>134979</v>
+        <v>165877</v>
       </c>
       <c r="C81" t="s">
         <v>556</v>
@@ -8879,7 +8879,7 @@
         <v>33743</v>
       </c>
       <c r="B82" t="n">
-        <v>134980</v>
+        <v>165878</v>
       </c>
       <c r="C82" t="s">
         <v>562</v>
@@ -8950,7 +8950,7 @@
         <v>33743</v>
       </c>
       <c r="B83" t="n">
-        <v>134981</v>
+        <v>165879</v>
       </c>
       <c r="C83" t="s">
         <v>569</v>
@@ -9021,7 +9021,7 @@
         <v>33743</v>
       </c>
       <c r="B84" t="n">
-        <v>134982</v>
+        <v>165880</v>
       </c>
       <c r="C84" t="s">
         <v>575</v>
@@ -9092,7 +9092,7 @@
         <v>33743</v>
       </c>
       <c r="B85" t="n">
-        <v>134983</v>
+        <v>165881</v>
       </c>
       <c r="C85" t="s">
         <v>580</v>
@@ -9163,7 +9163,7 @@
         <v>33743</v>
       </c>
       <c r="B86" t="n">
-        <v>134984</v>
+        <v>165882</v>
       </c>
       <c r="C86" t="s">
         <v>586</v>
@@ -9234,7 +9234,7 @@
         <v>33743</v>
       </c>
       <c r="B87" t="n">
-        <v>134931</v>
+        <v>134935</v>
       </c>
       <c r="C87" t="s">
         <v>163</v>
@@ -9301,7 +9301,7 @@
         <v>33743</v>
       </c>
       <c r="B88" t="n">
-        <v>134985</v>
+        <v>165883</v>
       </c>
       <c r="C88" t="s">
         <v>600</v>
@@ -9368,7 +9368,7 @@
         <v>33743</v>
       </c>
       <c r="B89" t="n">
-        <v>134986</v>
+        <v>165884</v>
       </c>
       <c r="C89" t="s">
         <v>608</v>
@@ -9435,7 +9435,7 @@
         <v>33743</v>
       </c>
       <c r="B90" t="n">
-        <v>134987</v>
+        <v>165885</v>
       </c>
       <c r="C90" t="s">
         <v>616</v>
@@ -9506,7 +9506,7 @@
         <v>33743</v>
       </c>
       <c r="B91" t="n">
-        <v>134988</v>
+        <v>165886</v>
       </c>
       <c r="C91" t="s">
         <v>622</v>
@@ -9577,7 +9577,7 @@
         <v>33743</v>
       </c>
       <c r="B92" t="n">
-        <v>134989</v>
+        <v>165887</v>
       </c>
       <c r="C92" t="s">
         <v>628</v>
@@ -9936,7 +9936,7 @@
         <v>33743</v>
       </c>
       <c r="B97" t="n">
-        <v>134990</v>
+        <v>165888</v>
       </c>
       <c r="C97" t="s">
         <v>664</v>
@@ -10003,7 +10003,7 @@
         <v>33743</v>
       </c>
       <c r="B98" t="n">
-        <v>134991</v>
+        <v>165889</v>
       </c>
       <c r="C98" t="s">
         <v>670</v>
@@ -10078,7 +10078,7 @@
         <v>33743</v>
       </c>
       <c r="B99" t="n">
-        <v>134992</v>
+        <v>165890</v>
       </c>
       <c r="C99" t="s">
         <v>680</v>
@@ -10153,7 +10153,7 @@
         <v>33743</v>
       </c>
       <c r="B100" t="n">
-        <v>134993</v>
+        <v>134949</v>
       </c>
       <c r="C100" t="s">
         <v>687</v>
@@ -10228,7 +10228,7 @@
         <v>33743</v>
       </c>
       <c r="B101" t="n">
-        <v>134994</v>
+        <v>165891</v>
       </c>
       <c r="C101" t="s">
         <v>695</v>
@@ -10353,7 +10353,7 @@
         <v>33743</v>
       </c>
       <c r="B103" t="n">
-        <v>134995</v>
+        <v>165892</v>
       </c>
       <c r="C103" t="s">
         <v>706</v>
@@ -10495,7 +10495,7 @@
         <v>33743</v>
       </c>
       <c r="B105" t="n">
-        <v>134969</v>
+        <v>134942</v>
       </c>
       <c r="C105" t="s">
         <v>461</v>
@@ -10566,7 +10566,7 @@
         <v>33743</v>
       </c>
       <c r="B106" t="n">
-        <v>134996</v>
+        <v>165893</v>
       </c>
       <c r="C106" t="s">
         <v>725</v>
@@ -10698,7 +10698,7 @@
         <v>33743</v>
       </c>
       <c r="B108" t="n">
-        <v>134997</v>
+        <v>165894</v>
       </c>
       <c r="C108" t="s">
         <v>738</v>
@@ -10840,7 +10840,7 @@
         <v>33743</v>
       </c>
       <c r="B110" t="n">
-        <v>134998</v>
+        <v>165895</v>
       </c>
       <c r="C110" t="s">
         <v>752</v>
@@ -10915,7 +10915,7 @@
         <v>33743</v>
       </c>
       <c r="B111" t="n">
-        <v>134999</v>
+        <v>165896</v>
       </c>
       <c r="C111" t="s">
         <v>762</v>
@@ -11190,7 +11190,7 @@
         <v>33743</v>
       </c>
       <c r="B115" t="n">
-        <v>135000</v>
+        <v>165897</v>
       </c>
       <c r="C115" t="s">
         <v>787</v>
@@ -11257,7 +11257,7 @@
         <v>33743</v>
       </c>
       <c r="B116" t="n">
-        <v>135001</v>
+        <v>165898</v>
       </c>
       <c r="C116" t="s">
         <v>793</v>
@@ -11328,7 +11328,7 @@
         <v>33743</v>
       </c>
       <c r="B117" t="n">
-        <v>135002</v>
+        <v>165899</v>
       </c>
       <c r="C117" t="s">
         <v>800</v>
@@ -11399,7 +11399,7 @@
         <v>33743</v>
       </c>
       <c r="B118" t="n">
-        <v>135003</v>
+        <v>165900</v>
       </c>
       <c r="C118" t="s">
         <v>807</v>
@@ -11470,7 +11470,7 @@
         <v>33743</v>
       </c>
       <c r="B119" t="n">
-        <v>135004</v>
+        <v>165901</v>
       </c>
       <c r="C119" t="s">
         <v>813</v>
@@ -11541,7 +11541,7 @@
         <v>33743</v>
       </c>
       <c r="B120" t="n">
-        <v>135005</v>
+        <v>165902</v>
       </c>
       <c r="C120" t="s">
         <v>820</v>
@@ -11681,7 +11681,7 @@
         <v>33743</v>
       </c>
       <c r="B122" t="n">
-        <v>135006</v>
+        <v>165903</v>
       </c>
       <c r="C122" t="s">
         <v>830</v>
@@ -11756,7 +11756,7 @@
         <v>33743</v>
       </c>
       <c r="B123" t="n">
-        <v>135007</v>
+        <v>165904</v>
       </c>
       <c r="C123" t="s">
         <v>840</v>
@@ -11831,7 +11831,7 @@
         <v>33743</v>
       </c>
       <c r="B124" t="n">
-        <v>135008</v>
+        <v>165905</v>
       </c>
       <c r="C124" t="s">
         <v>848</v>
@@ -11906,7 +11906,7 @@
         <v>33743</v>
       </c>
       <c r="B125" t="n">
-        <v>135009</v>
+        <v>165906</v>
       </c>
       <c r="C125" t="s">
         <v>858</v>
@@ -11981,7 +11981,7 @@
         <v>33743</v>
       </c>
       <c r="B126" t="n">
-        <v>135010</v>
+        <v>165907</v>
       </c>
       <c r="C126" t="s">
         <v>868</v>
@@ -12054,7 +12054,7 @@
         <v>33743</v>
       </c>
       <c r="B127" t="n">
-        <v>134992</v>
+        <v>134949</v>
       </c>
       <c r="C127" t="s">
         <v>687</v>
@@ -12129,7 +12129,7 @@
         <v>33743</v>
       </c>
       <c r="B128" t="n">
-        <v>135011</v>
+        <v>165908</v>
       </c>
       <c r="C128" t="s">
         <v>881</v>
@@ -12200,7 +12200,7 @@
         <v>33743</v>
       </c>
       <c r="B129" t="n">
-        <v>135012</v>
+        <v>165909</v>
       </c>
       <c r="C129" t="s">
         <v>890</v>
@@ -12271,7 +12271,7 @@
         <v>33743</v>
       </c>
       <c r="B130" t="n">
-        <v>135013</v>
+        <v>165910</v>
       </c>
       <c r="C130" t="s">
         <v>900</v>
@@ -12346,7 +12346,7 @@
         <v>33743</v>
       </c>
       <c r="B131" t="n">
-        <v>135014</v>
+        <v>165911</v>
       </c>
       <c r="C131" t="s">
         <v>910</v>
@@ -12421,7 +12421,7 @@
         <v>33743</v>
       </c>
       <c r="B132" t="n">
-        <v>135015</v>
+        <v>165912</v>
       </c>
       <c r="C132" t="s">
         <v>920</v>
@@ -12490,7 +12490,7 @@
         <v>33743</v>
       </c>
       <c r="B133" t="n">
-        <v>135016</v>
+        <v>165913</v>
       </c>
       <c r="C133" t="s">
         <v>927</v>
